--- a/results/2_models/comparison_promt_vs_no_prompt.xlsx
+++ b/results/2_models/comparison_promt_vs_no_prompt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d56eb89965c5422/Escritorio/TFM_UCM/results/2_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="661" documentId="11_AD4DCBB4A06381AAC71CFC870ED6D2DE693EDF2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D843BB4-1192-406F-BFA2-76B4B161A93F}"/>
+  <xr:revisionPtr revIDLastSave="674" documentId="11_AD4DCBB4A06381AAC71CFC870ED6D2DE693EDF2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AA716A-96C7-458A-B62F-532BEA3C5E96}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba_BIOLOGIA_2020" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -403,47 +403,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,9 +430,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +438,33 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +750,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -770,29 +763,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,27 +801,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -846,7 +839,7 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="20">
         <f>(D3/C3)*100</f>
         <v>57.837837837837839</v>
       </c>
@@ -870,7 +863,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,7 +879,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>62.702702702702709</v>
       </c>
@@ -910,7 +903,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -926,7 +919,7 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>55.135135135135137</v>
       </c>
@@ -950,7 +943,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -968,7 +961,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>57.837837837837839</v>
       </c>
@@ -992,7 +985,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1001,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>58.378378378378379</v>
       </c>
@@ -1035,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1044,7 @@
       <c r="F8" s="1">
         <v>54</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="20">
         <f t="shared" si="0"/>
         <v>41.221374045801525</v>
       </c>
@@ -1075,7 +1068,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1093,7 +1086,7 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>60.10928961748634</v>
       </c>
@@ -1120,7 +1113,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,14 +1129,14 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>60.540540540540547</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1159,14 +1152,14 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>56.521739130434781</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1184,22 +1177,22 @@
       <c r="F12" s="1">
         <v>160</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1215,26 +1208,26 @@
       <c r="F13" s="4">
         <v>169</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,32 +1243,32 @@
       <c r="F14" s="4">
         <v>172</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>30.76923076923077</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1293,32 +1286,32 @@
       <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>36.263736263736263</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="15">
         <v>63.78378378378379</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="15">
         <v>62.702702702702709</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="15">
         <v>55.135135135135137</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,32 +1327,32 @@
       <c r="F16" s="1">
         <v>85</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="15">
         <v>60.10928961748634</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="15">
         <v>60.540540540540547</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="15">
         <v>56.521739130434781</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1377,32 +1370,32 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>58.918918918918919</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="15">
         <v>58.918918918918919</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="15">
         <v>58.378378378378379</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="15">
         <v>41.221374045801525</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1418,32 +1411,32 @@
       <c r="F18" s="4">
         <v>73</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="15">
         <v>57.837837837837839</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="15">
         <v>50</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="15">
         <v>37.931034482758619</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1459,32 +1452,32 @@
       <c r="F19" s="4">
         <v>98</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
         <v>37.931034482758619</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="15">
         <v>57.837837837837839</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="15">
         <v>44</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="15">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1502,28 +1495,26 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="20">
         <f t="shared" si="0"/>
         <v>63.78378378378379</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="15">
         <v>36.263736263736263</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="15">
         <v>37.5</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1539,25 +1530,23 @@
       <c r="F21" s="8">
         <v>32</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="20">
         <f t="shared" si="0"/>
         <v>33.009708737864081</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="15">
         <v>33.009708737864081</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -1566,75 +1555,75 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>185</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="17">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>185</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1660,29 +1649,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,27 +1687,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1728,7 +1717,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1752,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1749,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1784,7 +1773,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1781,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1816,7 +1805,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1826,7 +1815,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1850,7 +1839,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1858,7 +1847,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1885,7 +1874,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1882,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1917,7 +1906,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1927,7 +1916,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1954,7 +1943,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1962,14 +1951,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1977,14 +1966,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1994,22 +1983,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2017,26 +2006,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2044,32 +2033,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2079,26 +2068,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2106,26 +2095,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2135,26 +2124,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2162,26 +2151,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2189,26 +2178,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2218,24 +2207,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -2243,21 +2232,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -2266,61 +2255,61 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>6977</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="37">
+      <c r="C26" s="17"/>
+      <c r="D26" s="25">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>182</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="36">
+      <c r="C27" s="17"/>
+      <c r="D27" s="24">
         <v>0.97460000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>7159</v>
       </c>
-      <c r="C28" s="28">
-        <f t="shared" ref="C28:D28" si="1">SUM(C26:C27)</f>
+      <c r="C28" s="17">
+        <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
     </row>
@@ -2328,6 +2317,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -2337,12 +2332,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2368,29 +2357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2406,27 +2395,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2436,7 +2425,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2460,7 +2449,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2457,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2492,7 +2481,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2489,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2524,7 +2513,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2534,7 +2523,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2558,7 +2547,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2566,7 +2555,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2593,7 +2582,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +2590,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2625,7 +2614,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2635,7 +2624,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2662,7 +2651,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2670,14 +2659,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2685,14 +2674,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2702,22 +2691,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2725,26 +2714,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2752,32 +2741,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2787,26 +2776,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2814,26 +2803,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2843,26 +2832,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2870,26 +2859,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2897,26 +2886,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2926,24 +2915,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -2951,21 +2940,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -2974,54 +2963,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>900</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>125</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1025</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -3030,6 +3019,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -3039,12 +3034,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3057,8 +3046,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3070,29 +3059,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3108,27 +3097,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3138,7 +3127,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3162,7 +3151,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3159,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3194,17 +3183,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C5" s="3">
+        <v>945</v>
+      </c>
+      <c r="D5" s="3">
+        <v>427</v>
+      </c>
+      <c r="E5" s="3">
+        <v>518</v>
+      </c>
+      <c r="F5" s="3">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>45.185185185185183</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
@@ -3226,7 +3223,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3236,7 +3233,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3260,7 +3257,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3265,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3295,17 +3292,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C8" s="1">
+        <v>701</v>
+      </c>
+      <c r="D8" s="1">
+        <v>255</v>
+      </c>
+      <c r="E8" s="1">
+        <v>446</v>
+      </c>
+      <c r="F8" s="1">
+        <v>266</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>36.37660485021398</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="5" t="s">
@@ -3327,7 +3332,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3337,7 +3342,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3364,7 +3369,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3372,29 +3377,37 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11" s="3">
+        <v>911</v>
+      </c>
+      <c r="D11" s="3">
+        <v>378</v>
+      </c>
+      <c r="E11" s="3">
+        <v>533</v>
+      </c>
+      <c r="F11" s="3">
+        <v>56</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>41.492864983534581</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3404,22 +3417,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -3427,26 +3440,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3454,32 +3467,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3489,26 +3502,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3516,26 +3529,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3545,26 +3558,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3572,26 +3585,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -3599,26 +3612,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3628,24 +3641,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -3653,21 +3666,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -3676,62 +3689,70 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>967</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17">
+        <v>967</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>57</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1024</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
-        <v>0</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -3741,12 +3762,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3772,29 +3787,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3810,27 +3825,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3840,7 +3855,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3864,7 +3879,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3887,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3896,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +3919,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3928,7 +3943,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3938,7 +3953,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3962,7 +3977,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +3985,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3997,7 +4012,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4005,7 +4020,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4029,7 +4044,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4039,7 +4054,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4066,7 +4081,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4074,14 +4089,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -4089,14 +4104,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4106,22 +4121,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -4129,26 +4144,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4156,32 +4171,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4191,26 +4206,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4218,26 +4233,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4247,26 +4262,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4274,26 +4289,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -4301,26 +4316,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4330,24 +4345,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -4355,21 +4370,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -4378,54 +4393,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>1025</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1025</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -4434,6 +4449,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -4443,12 +4464,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4474,29 +4489,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4512,27 +4527,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4542,7 +4557,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4566,7 +4581,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4574,7 +4589,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4598,7 +4613,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4606,7 +4621,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4630,7 +4645,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4640,7 +4655,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4664,7 +4679,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -4672,7 +4687,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4699,7 +4714,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4707,7 +4722,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4731,7 +4746,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4741,7 +4756,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4768,7 +4783,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4776,14 +4791,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -4791,14 +4806,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4808,22 +4823,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -4831,26 +4846,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4858,32 +4873,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4893,26 +4908,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4920,26 +4935,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4949,26 +4964,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4976,26 +4991,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5003,26 +5018,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5032,24 +5047,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -5057,21 +5072,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -5080,54 +5095,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>1025</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1025</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -5136,6 +5151,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -5145,12 +5166,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5176,29 +5191,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5214,27 +5229,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5244,7 +5259,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5268,7 +5283,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5276,7 +5291,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5300,7 +5315,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5308,7 +5323,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5332,7 +5347,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5342,7 +5357,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5366,7 +5381,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -5374,7 +5389,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5401,7 +5416,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5409,7 +5424,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5433,7 +5448,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5443,7 +5458,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5470,7 +5485,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5478,14 +5493,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -5493,14 +5508,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5510,22 +5525,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5533,26 +5548,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5560,32 +5575,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5595,26 +5610,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5622,26 +5637,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -5651,26 +5666,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5678,26 +5693,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5705,26 +5720,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5734,24 +5749,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -5759,21 +5774,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -5782,54 +5797,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>1025</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1025</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -5838,6 +5853,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -5847,12 +5868,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5878,29 +5893,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5916,27 +5931,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5946,7 +5961,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5970,7 +5985,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5978,7 +5993,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6002,7 +6017,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -6010,7 +6025,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6034,7 +6049,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6044,7 +6059,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6068,7 +6083,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6076,7 +6091,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6103,7 +6118,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6111,7 +6126,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6135,7 +6150,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6145,7 +6160,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6172,7 +6187,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6180,14 +6195,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6195,14 +6210,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6212,22 +6227,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -6235,26 +6250,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6262,32 +6277,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6297,26 +6312,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6324,26 +6339,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -6353,26 +6368,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -6380,26 +6395,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -6407,26 +6422,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6436,24 +6451,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -6461,21 +6476,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -6484,54 +6499,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>1025</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1025</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -6540,6 +6555,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -6549,12 +6570,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6580,29 +6595,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6618,27 +6633,27 @@
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6648,7 +6663,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="20" t="e">
         <f>(D3/C3)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6672,7 +6687,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6680,7 +6695,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31" t="e">
+      <c r="G4" s="20" t="e">
         <f t="shared" ref="G4:G21" si="0">(D4/C4)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6704,7 +6719,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -6712,7 +6727,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="e">
+      <c r="G5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6736,7 +6751,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6746,7 +6761,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6770,7 +6785,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -6778,7 +6793,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31" t="e">
+      <c r="G7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6805,7 +6820,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6828,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6837,7 +6852,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6847,7 +6862,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="31" t="e">
+      <c r="G9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6874,7 +6889,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6882,14 +6897,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31" t="e">
+      <c r="G10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6897,14 +6912,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="31" t="e">
+      <c r="G11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6914,22 +6929,22 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -6937,26 +6952,26 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="e">
+      <c r="G13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6964,32 +6979,32 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="e">
+      <c r="G14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6999,26 +7014,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="31" t="e">
+      <c r="G15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -7026,26 +7041,26 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -7055,26 +7070,26 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="31" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -7082,26 +7097,26 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="e">
+      <c r="G18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -7109,26 +7124,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="e">
+      <c r="G19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7138,24 +7153,24 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -7163,21 +7178,21 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="31" t="e">
+      <c r="G21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
@@ -7186,54 +7201,54 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="17">
         <v>1010</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <f>SUM(B26:B27)</f>
         <v>1010</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="17">
         <f t="shared" ref="C28" si="1">SUM(C26:C27)</f>
         <v>0</v>
       </c>
@@ -7242,6 +7257,12 @@
     <row r="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A24:C24"/>
@@ -7251,12 +7272,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
